--- a/Values.xlsx
+++ b/Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\Documents importants\DTU\Courses\46300 - Wind Turbine and Aerodynamics\Assignements\Assignement 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCE2CC6-704D-431F-B42A-143E1E5E32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E69B141-AD13-4C47-A3B7-0F811D2FD29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1478">
   <si>
     <t>Pm</t>
   </si>
@@ -4467,6 +4467,9 @@
   </si>
   <si>
     <t>11,17°</t>
+  </si>
+  <si>
+    <t>Eff_total</t>
   </si>
 </sst>
 </file>
@@ -4817,7 +4820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4833,18 +4836,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -4869,13 +4866,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4885,7 +4875,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4901,30 +4890,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4941,6 +4914,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5256,11 +5253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A61F74-504D-4293-97CF-80820BD3EF44}">
-  <dimension ref="A1:DI39"/>
+  <dimension ref="A1:CQ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L18" sqref="L18"/>
+      <selection pane="topRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,1242 +5271,1242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:95" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="47"/>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="47"/>
-      <c r="AJ1" s="47"/>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="47"/>
-      <c r="AR1" s="47"/>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="46" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+      <c r="AO1" s="43"/>
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="47"/>
-      <c r="BD1" s="47"/>
-      <c r="BE1" s="47"/>
-      <c r="BF1" s="47"/>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="47"/>
-      <c r="BI1" s="47"/>
-      <c r="BJ1" s="47"/>
-      <c r="BK1" s="47"/>
-      <c r="BL1" s="47"/>
-      <c r="BM1" s="47"/>
-      <c r="BN1" s="47"/>
-      <c r="BO1" s="47"/>
-      <c r="BP1" s="47"/>
-      <c r="BQ1" s="47"/>
-      <c r="BR1" s="47"/>
-      <c r="BS1" s="47"/>
-      <c r="BT1" s="47"/>
-      <c r="BU1" s="47"/>
-      <c r="BV1" s="47"/>
-      <c r="BW1" s="47"/>
-      <c r="BX1" s="47"/>
-      <c r="BY1" s="47"/>
-      <c r="BZ1" s="47"/>
-      <c r="CA1" s="47"/>
-      <c r="CB1" s="47"/>
-      <c r="CC1" s="47"/>
-      <c r="CD1" s="47"/>
-      <c r="CE1" s="47"/>
-      <c r="CF1" s="47"/>
-      <c r="CG1" s="47"/>
-      <c r="CH1" s="47"/>
-      <c r="CI1" s="47"/>
-      <c r="CJ1" s="47"/>
-      <c r="CK1" s="47"/>
-      <c r="CL1" s="47"/>
-      <c r="CM1" s="47"/>
-      <c r="CN1" s="47"/>
-      <c r="CO1" s="47"/>
-      <c r="CP1" s="47"/>
-      <c r="CQ1" s="50"/>
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="43"/>
+      <c r="BG1" s="43"/>
+      <c r="BH1" s="43"/>
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43"/>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="43"/>
+      <c r="BN1" s="43"/>
+      <c r="BO1" s="43"/>
+      <c r="BP1" s="43"/>
+      <c r="BQ1" s="43"/>
+      <c r="BR1" s="43"/>
+      <c r="BS1" s="43"/>
+      <c r="BT1" s="43"/>
+      <c r="BU1" s="43"/>
+      <c r="BV1" s="43"/>
+      <c r="BW1" s="43"/>
+      <c r="BX1" s="43"/>
+      <c r="BY1" s="43"/>
+      <c r="BZ1" s="43"/>
+      <c r="CA1" s="43"/>
+      <c r="CB1" s="43"/>
+      <c r="CC1" s="43"/>
+      <c r="CD1" s="43"/>
+      <c r="CE1" s="43"/>
+      <c r="CF1" s="43"/>
+      <c r="CG1" s="43"/>
+      <c r="CH1" s="43"/>
+      <c r="CI1" s="43"/>
+      <c r="CJ1" s="43"/>
+      <c r="CK1" s="43"/>
+      <c r="CL1" s="43"/>
+      <c r="CM1" s="43"/>
+      <c r="CN1" s="43"/>
+      <c r="CO1" s="43"/>
+      <c r="CP1" s="43"/>
+      <c r="CQ1" s="45"/>
     </row>
     <row r="2" spans="1:95" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="51">
+      <c r="C2" s="37">
         <v>0</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="38">
         <v>0.5</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="38">
         <v>1</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="38">
         <v>1.5</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="38">
         <v>2</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="38">
         <v>2.5</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="38">
         <v>3</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="38">
         <v>3.5</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="38">
         <v>4</v>
       </c>
-      <c r="L2" s="52">
+      <c r="L2" s="38">
         <v>4.5</v>
       </c>
-      <c r="M2" s="52">
+      <c r="M2" s="38">
         <v>5</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="38">
         <v>5.5</v>
       </c>
-      <c r="O2" s="52">
+      <c r="O2" s="38">
         <v>6</v>
       </c>
-      <c r="P2" s="52">
+      <c r="P2" s="38">
         <v>6.5</v>
       </c>
-      <c r="Q2" s="52">
+      <c r="Q2" s="38">
         <v>7</v>
       </c>
-      <c r="R2" s="52">
+      <c r="R2" s="38">
         <v>7.5</v>
       </c>
-      <c r="S2" s="52">
+      <c r="S2" s="38">
         <v>8</v>
       </c>
-      <c r="T2" s="52">
+      <c r="T2" s="38">
         <v>8.5</v>
       </c>
-      <c r="U2" s="52">
+      <c r="U2" s="38">
         <v>9</v>
       </c>
-      <c r="V2" s="52">
+      <c r="V2" s="38">
         <v>9.5</v>
       </c>
-      <c r="W2" s="52">
+      <c r="W2" s="38">
         <v>10</v>
       </c>
-      <c r="X2" s="52">
+      <c r="X2" s="38">
         <v>10.5</v>
       </c>
-      <c r="Y2" s="52">
+      <c r="Y2" s="38">
         <v>11</v>
       </c>
-      <c r="Z2" s="52">
+      <c r="Z2" s="38">
         <v>11.5</v>
       </c>
-      <c r="AA2" s="52">
+      <c r="AA2" s="38">
         <v>12</v>
       </c>
-      <c r="AB2" s="52">
+      <c r="AB2" s="38">
         <v>12.5</v>
       </c>
-      <c r="AC2" s="52">
+      <c r="AC2" s="38">
         <v>13</v>
       </c>
-      <c r="AD2" s="52">
+      <c r="AD2" s="38">
         <v>13.5</v>
       </c>
-      <c r="AE2" s="52">
+      <c r="AE2" s="38">
         <v>14</v>
       </c>
-      <c r="AF2" s="52">
+      <c r="AF2" s="38">
         <v>14.5</v>
       </c>
-      <c r="AG2" s="52">
+      <c r="AG2" s="38">
         <v>15</v>
       </c>
-      <c r="AH2" s="52">
+      <c r="AH2" s="38">
         <v>15.5</v>
       </c>
-      <c r="AI2" s="52">
+      <c r="AI2" s="38">
         <v>16</v>
       </c>
-      <c r="AJ2" s="52">
+      <c r="AJ2" s="38">
         <v>16.5</v>
       </c>
-      <c r="AK2" s="52">
+      <c r="AK2" s="38">
         <v>17</v>
       </c>
-      <c r="AL2" s="52">
+      <c r="AL2" s="38">
         <v>17.5</v>
       </c>
-      <c r="AM2" s="52">
+      <c r="AM2" s="38">
         <v>18</v>
       </c>
-      <c r="AN2" s="52">
+      <c r="AN2" s="38">
         <v>18.5</v>
       </c>
-      <c r="AO2" s="52">
+      <c r="AO2" s="38">
         <v>19</v>
       </c>
-      <c r="AP2" s="52">
+      <c r="AP2" s="38">
         <v>19.5</v>
       </c>
-      <c r="AQ2" s="52">
+      <c r="AQ2" s="38">
         <v>20</v>
       </c>
-      <c r="AR2" s="52">
+      <c r="AR2" s="38">
         <v>20.5</v>
       </c>
-      <c r="AS2" s="52">
+      <c r="AS2" s="38">
         <v>21</v>
       </c>
-      <c r="AT2" s="52">
+      <c r="AT2" s="38">
         <v>21.5</v>
       </c>
-      <c r="AU2" s="52">
-        <v>22</v>
-      </c>
-      <c r="AV2" s="53">
+      <c r="AU2" s="38">
+        <v>22</v>
+      </c>
+      <c r="AV2" s="39">
         <v>22.5</v>
       </c>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="51">
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="37">
         <v>0</v>
       </c>
-      <c r="AY2" s="52">
+      <c r="AY2" s="38">
         <v>0.5</v>
       </c>
-      <c r="AZ2" s="52">
+      <c r="AZ2" s="38">
         <v>1</v>
       </c>
-      <c r="BA2" s="52">
+      <c r="BA2" s="38">
         <v>1.5</v>
       </c>
-      <c r="BB2" s="52">
+      <c r="BB2" s="38">
         <v>2</v>
       </c>
-      <c r="BC2" s="52">
+      <c r="BC2" s="38">
         <v>2.5</v>
       </c>
-      <c r="BD2" s="52">
+      <c r="BD2" s="38">
         <v>3</v>
       </c>
-      <c r="BE2" s="52">
+      <c r="BE2" s="38">
         <v>3.5</v>
       </c>
-      <c r="BF2" s="52">
+      <c r="BF2" s="38">
         <v>4</v>
       </c>
-      <c r="BG2" s="52">
+      <c r="BG2" s="38">
         <v>4.5</v>
       </c>
-      <c r="BH2" s="52">
+      <c r="BH2" s="38">
         <v>5</v>
       </c>
-      <c r="BI2" s="52">
+      <c r="BI2" s="38">
         <v>5.5</v>
       </c>
-      <c r="BJ2" s="52">
+      <c r="BJ2" s="38">
         <v>6</v>
       </c>
-      <c r="BK2" s="52">
+      <c r="BK2" s="38">
         <v>6.5</v>
       </c>
-      <c r="BL2" s="52">
+      <c r="BL2" s="38">
         <v>7</v>
       </c>
-      <c r="BM2" s="52">
+      <c r="BM2" s="38">
         <v>7.5</v>
       </c>
-      <c r="BN2" s="52">
+      <c r="BN2" s="38">
         <v>8</v>
       </c>
-      <c r="BO2" s="52">
+      <c r="BO2" s="38">
         <v>8.5</v>
       </c>
-      <c r="BP2" s="52">
+      <c r="BP2" s="38">
         <v>9</v>
       </c>
-      <c r="BQ2" s="52">
+      <c r="BQ2" s="38">
         <v>9.5</v>
       </c>
-      <c r="BR2" s="52">
+      <c r="BR2" s="38">
         <v>10</v>
       </c>
-      <c r="BS2" s="52">
+      <c r="BS2" s="38">
         <v>10.5</v>
       </c>
-      <c r="BT2" s="52">
+      <c r="BT2" s="38">
         <v>11</v>
       </c>
-      <c r="BU2" s="52">
+      <c r="BU2" s="38">
         <v>11.5</v>
       </c>
-      <c r="BV2" s="52">
+      <c r="BV2" s="38">
         <v>12</v>
       </c>
-      <c r="BW2" s="52">
+      <c r="BW2" s="38">
         <v>12.5</v>
       </c>
-      <c r="BX2" s="52">
+      <c r="BX2" s="38">
         <v>13</v>
       </c>
-      <c r="BY2" s="52">
+      <c r="BY2" s="38">
         <v>13.5</v>
       </c>
-      <c r="BZ2" s="52">
+      <c r="BZ2" s="38">
         <v>14</v>
       </c>
-      <c r="CA2" s="52">
+      <c r="CA2" s="38">
         <v>14.5</v>
       </c>
-      <c r="CB2" s="52">
+      <c r="CB2" s="38">
         <v>15</v>
       </c>
-      <c r="CC2" s="52">
+      <c r="CC2" s="38">
         <v>15.5</v>
       </c>
-      <c r="CD2" s="52">
+      <c r="CD2" s="38">
         <v>16</v>
       </c>
-      <c r="CE2" s="52">
+      <c r="CE2" s="38">
         <v>16.5</v>
       </c>
-      <c r="CF2" s="52">
+      <c r="CF2" s="38">
         <v>17</v>
       </c>
-      <c r="CG2" s="52">
+      <c r="CG2" s="38">
         <v>17.5</v>
       </c>
-      <c r="CH2" s="52">
+      <c r="CH2" s="38">
         <v>18</v>
       </c>
-      <c r="CI2" s="52">
+      <c r="CI2" s="38">
         <v>18.5</v>
       </c>
-      <c r="CJ2" s="52">
+      <c r="CJ2" s="38">
         <v>19</v>
       </c>
-      <c r="CK2" s="52">
+      <c r="CK2" s="38">
         <v>19.5</v>
       </c>
-      <c r="CL2" s="52">
+      <c r="CL2" s="38">
         <v>20</v>
       </c>
-      <c r="CM2" s="52">
+      <c r="CM2" s="38">
         <v>20.5</v>
       </c>
-      <c r="CN2" s="52">
+      <c r="CN2" s="38">
         <v>21</v>
       </c>
-      <c r="CO2" s="52">
+      <c r="CO2" s="38">
         <v>21.5</v>
       </c>
-      <c r="CP2" s="52">
-        <v>22</v>
-      </c>
-      <c r="CQ2" s="55">
+      <c r="CP2" s="38">
+        <v>22</v>
+      </c>
+      <c r="CQ2" s="41">
         <v>22.5</v>
       </c>
     </row>
     <row r="3" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AE3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="15" t="s">
+      <c r="AG3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="15" t="s">
+      <c r="AH3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AI3" s="15" t="s">
+      <c r="AI3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AJ3" s="15" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="15" t="s">
+      <c r="AL3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AM3" s="15" t="s">
+      <c r="AM3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AN3" s="15" t="s">
+      <c r="AN3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AO3" s="15" t="s">
+      <c r="AO3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AP3" s="15" t="s">
+      <c r="AP3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AQ3" s="15" t="s">
+      <c r="AQ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AR3" s="15" t="s">
+      <c r="AR3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AS3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="15" t="s">
+      <c r="AT3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AU3" s="15" t="s">
+      <c r="AU3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AV3" s="24" t="s">
+      <c r="AV3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="14" t="s">
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="AY3" s="15" t="s">
+      <c r="AY3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AZ3" s="15" t="s">
+      <c r="AZ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BA3" s="15" t="s">
+      <c r="BA3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BB3" s="15" t="s">
+      <c r="BB3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BC3" s="15" t="s">
+      <c r="BC3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="15" t="s">
+      <c r="BD3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BE3" s="15" t="s">
+      <c r="BE3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BF3" s="15" t="s">
+      <c r="BF3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BG3" s="15" t="s">
+      <c r="BG3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BH3" s="15" t="s">
+      <c r="BH3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BI3" s="15" t="s">
+      <c r="BI3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BJ3" s="15" t="s">
+      <c r="BJ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BK3" s="15" t="s">
+      <c r="BK3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BL3" s="15" t="s">
+      <c r="BL3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BM3" s="15" t="s">
+      <c r="BM3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BN3" s="15" t="s">
+      <c r="BN3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BO3" s="15" t="s">
+      <c r="BO3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BP3" s="15" t="s">
+      <c r="BP3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BQ3" s="15" t="s">
+      <c r="BQ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BR3" s="15" t="s">
+      <c r="BR3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BS3" s="15" t="s">
+      <c r="BS3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BT3" s="15" t="s">
+      <c r="BT3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BU3" s="15" t="s">
+      <c r="BU3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BV3" s="15" t="s">
+      <c r="BV3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BW3" s="15" t="s">
+      <c r="BW3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BX3" s="15" t="s">
+      <c r="BX3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BY3" s="15" t="s">
+      <c r="BY3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="BZ3" s="15" t="s">
+      <c r="BZ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CA3" s="15" t="s">
+      <c r="CA3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CB3" s="15" t="s">
+      <c r="CB3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CC3" s="15" t="s">
+      <c r="CC3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CD3" s="15" t="s">
+      <c r="CD3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CE3" s="15" t="s">
+      <c r="CE3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CF3" s="15" t="s">
+      <c r="CF3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CG3" s="15" t="s">
+      <c r="CG3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CH3" s="15" t="s">
+      <c r="CH3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CI3" s="15" t="s">
+      <c r="CI3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CJ3" s="15" t="s">
+      <c r="CJ3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CK3" s="15" t="s">
+      <c r="CK3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CL3" s="15" t="s">
+      <c r="CL3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CM3" s="15" t="s">
+      <c r="CM3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CN3" s="15" t="s">
+      <c r="CN3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CO3" s="15" t="s">
+      <c r="CO3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CP3" s="15" t="s">
+      <c r="CP3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CQ3" s="16" t="s">
+      <c r="CQ3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="V4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="X4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AK4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AR4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BE4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BK4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BL4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BN4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BS4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BU4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BV4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BW4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BY4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CB4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CC4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CD4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CF4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CG4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CH4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CI4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CJ4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CK4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CL4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CM4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CN4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CP4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="CQ4" s="34" t="s">
+      <c r="C4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BL4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BR4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BV4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BX4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BY4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CC4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CE4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CF4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CG4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CH4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CJ4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CK4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CL4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CM4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CN4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CO4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CP4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="CQ4" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="37" t="s">
+      <c r="W5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="37" t="s">
+      <c r="Y5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AF5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AG5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="AI5" s="37" t="s">
+      <c r="AI5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AJ5" s="37" t="s">
+      <c r="AJ5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" s="37" t="s">
+      <c r="AK5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="AL5" s="37" t="s">
+      <c r="AL5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="AM5" s="37" t="s">
+      <c r="AM5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AN5" s="37" t="s">
+      <c r="AN5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="AO5" s="37" t="s">
+      <c r="AO5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="AP5" s="37" t="s">
+      <c r="AP5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="AQ5" s="37" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="AR5" s="37" t="s">
+      <c r="AR5" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AS5" s="37" t="s">
+      <c r="AS5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AT5" s="37" t="s">
+      <c r="AT5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="AU5" s="37" t="s">
+      <c r="AU5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AV5" s="37" t="s">
+      <c r="AV5" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="39" t="s">
+      <c r="AW5" s="31"/>
+      <c r="AX5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AY5" s="37" t="s">
+      <c r="AY5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="AZ5" s="37" t="s">
+      <c r="AZ5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="BA5" s="37" t="s">
+      <c r="BA5" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BB5" s="37" t="s">
+      <c r="BB5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BC5" s="37" t="s">
+      <c r="BC5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="BD5" s="37" t="s">
+      <c r="BD5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="37" t="s">
+      <c r="BE5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="37" t="s">
+      <c r="BF5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="BG5" s="37" t="s">
+      <c r="BG5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="BH5" s="37" t="s">
+      <c r="BH5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BI5" s="37" t="s">
+      <c r="BI5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="BJ5" s="37" t="s">
+      <c r="BJ5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="BK5" s="37" t="s">
+      <c r="BK5" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="37" t="s">
+      <c r="BL5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="BM5" s="37" t="s">
+      <c r="BM5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="BN5" s="37" t="s">
+      <c r="BN5" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="BO5" s="37" t="s">
+      <c r="BO5" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BP5" s="37" t="s">
+      <c r="BP5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BQ5" s="37" t="s">
+      <c r="BQ5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BR5" s="37" t="s">
+      <c r="BR5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BS5" s="37" t="s">
+      <c r="BS5" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BT5" s="37" t="s">
+      <c r="BT5" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BU5" s="37" t="s">
+      <c r="BU5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BV5" s="37" t="s">
+      <c r="BV5" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BW5" s="37" t="s">
+      <c r="BW5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="BX5" s="37" t="s">
+      <c r="BX5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="BY5" s="37" t="s">
+      <c r="BY5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="BZ5" s="37" t="s">
+      <c r="BZ5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="CA5" s="37" t="s">
+      <c r="CA5" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="CB5" s="37" t="s">
+      <c r="CB5" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="CC5" s="37" t="s">
+      <c r="CC5" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="CD5" s="37" t="s">
+      <c r="CD5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="CE5" s="37" t="s">
+      <c r="CE5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="CF5" s="37" t="s">
+      <c r="CF5" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="CG5" s="37" t="s">
+      <c r="CG5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="CH5" s="37" t="s">
+      <c r="CH5" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="CI5" s="37" t="s">
+      <c r="CI5" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="CJ5" s="37" t="s">
+      <c r="CJ5" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="CK5" s="37" t="s">
+      <c r="CK5" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="CL5" s="37" t="s">
+      <c r="CL5" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="CM5" s="37" t="s">
+      <c r="CM5" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="CN5" s="37" t="s">
+      <c r="CN5" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="CO5" s="37" t="s">
+      <c r="CO5" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="CP5" s="37" t="s">
+      <c r="CP5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="CQ5" s="8" t="s">
+      <c r="CQ5" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -6648,7 +6645,7 @@
         <v>286</v>
       </c>
       <c r="AW6" s="5"/>
-      <c r="AX6" s="35" t="s">
+      <c r="AX6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AY6" s="3" t="s">
@@ -6783,18 +6780,18 @@
       <c r="CP6" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="CQ6" s="10" t="s">
+      <c r="CQ6" s="9" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="7" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="32" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6933,7 +6930,7 @@
         <v>114</v>
       </c>
       <c r="AW7" s="5"/>
-      <c r="AX7" s="35" t="s">
+      <c r="AX7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AY7" s="3" t="s">
@@ -7068,16 +7065,16 @@
       <c r="CP7" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="CQ7" s="10" t="s">
+      <c r="CQ7" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -7351,18 +7348,18 @@
       <c r="CP8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="CQ8" s="18" t="s">
+      <c r="CQ8" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -7501,7 +7498,7 @@
         <v>160</v>
       </c>
       <c r="AW9" s="5"/>
-      <c r="AX9" s="35" t="s">
+      <c r="AX9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="AY9" s="3" t="s">
@@ -7636,16 +7633,16 @@
       <c r="CP9" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="CQ9" s="10" t="s">
+      <c r="CQ9" s="9" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="27" t="s">
+      <c r="A10" s="46"/>
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -7919,18 +7916,18 @@
       <c r="CP10" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="CQ10" s="18" t="s">
+      <c r="CQ10" s="16" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="32" t="s">
         <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -8069,7 +8066,7 @@
         <v>206</v>
       </c>
       <c r="AW11" s="5"/>
-      <c r="AX11" s="35" t="s">
+      <c r="AX11" s="3" t="s">
         <v>161</v>
       </c>
       <c r="AY11" s="3" t="s">
@@ -8204,16 +8201,16 @@
       <c r="CP11" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="CQ11" s="10" t="s">
+      <c r="CQ11" s="9" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -8352,7 +8349,7 @@
         <v>22</v>
       </c>
       <c r="AW12" s="6"/>
-      <c r="AX12" s="35" t="s">
+      <c r="AX12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AY12" s="3" t="s">
@@ -8487,18 +8484,18 @@
       <c r="CP12" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="CQ12" s="10" t="s">
+      <c r="CQ12" s="9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="32" t="s">
         <v>208</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -8637,7 +8634,7 @@
         <v>241</v>
       </c>
       <c r="AW13" s="5"/>
-      <c r="AX13" s="35" t="s">
+      <c r="AX13" s="3" t="s">
         <v>208</v>
       </c>
       <c r="AY13" s="3" t="s">
@@ -8772,16 +8769,16 @@
       <c r="CP13" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="CQ13" s="10" t="s">
+      <c r="CQ13" s="9" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="46"/>
+      <c r="B14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -8920,7 +8917,7 @@
         <v>331</v>
       </c>
       <c r="AW14" s="5"/>
-      <c r="AX14" s="35" t="s">
+      <c r="AX14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AY14" s="3" t="s">
@@ -9055,18 +9052,18 @@
       <c r="CP14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="CQ14" s="10" t="s">
+      <c r="CQ14" s="9" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="32">
         <v>0</v>
       </c>
       <c r="D15" s="3">
@@ -9205,7 +9202,7 @@
         <v>96.63</v>
       </c>
       <c r="AW15" s="5"/>
-      <c r="AX15" s="35">
+      <c r="AX15" s="3">
         <v>0</v>
       </c>
       <c r="AY15" s="3">
@@ -9340,14 +9337,14 @@
       <c r="CP15" s="3">
         <v>91.56</v>
       </c>
-      <c r="CQ15" s="10">
+      <c r="CQ15" s="9">
         <v>97.9</v>
       </c>
     </row>
-    <row r="16" spans="1:95" s="23" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:95" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -9439,16 +9436,16 @@
       <c r="CN16" s="6"/>
       <c r="CO16" s="6"/>
       <c r="CP16" s="6"/>
-      <c r="CQ16" s="20"/>
+      <c r="CQ16" s="18"/>
     </row>
-    <row r="17" spans="1:113" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="32" t="s">
         <v>161</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -9587,7 +9584,7 @@
         <v>1437</v>
       </c>
       <c r="AW17" s="5"/>
-      <c r="AX17" s="35" t="s">
+      <c r="AX17" s="3" t="s">
         <v>161</v>
       </c>
       <c r="AY17" s="3" t="s">
@@ -9722,23 +9719,16 @@
       <c r="CP17" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="CQ17" s="10" t="s">
+      <c r="CQ17" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="DA17"/>
-      <c r="DE17"/>
-      <c r="DF17"/>
-      <c r="DG17"/>
-      <c r="DI17"/>
     </row>
-    <row r="18" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A18" s="46"/>
+      <c r="B18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="32" t="s">
         <v>1467</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -10012,18 +10002,18 @@
       <c r="CP18" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="CQ18" s="10" t="s">
+      <c r="CQ18" s="9" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="19" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="32" t="s">
         <v>528</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -10162,7 +10152,7 @@
         <v>572</v>
       </c>
       <c r="AW19" s="5"/>
-      <c r="AX19" s="35" t="s">
+      <c r="AX19" s="3" t="s">
         <v>528</v>
       </c>
       <c r="AY19" s="3" t="s">
@@ -10297,16 +10287,16 @@
       <c r="CP19" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="CQ19" s="10" t="s">
+      <c r="CQ19" s="9" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="27" t="s">
+    <row r="20" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A20" s="46"/>
+      <c r="B20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -10580,18 +10570,18 @@
       <c r="CP20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="CQ20" s="18" t="s">
+      <c r="CQ20" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="32" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -10730,7 +10720,7 @@
         <v>701</v>
       </c>
       <c r="AW21" s="5"/>
-      <c r="AX21" s="35" t="s">
+      <c r="AX21" s="3" t="s">
         <v>115</v>
       </c>
       <c r="AY21" s="3" t="s">
@@ -10865,16 +10855,16 @@
       <c r="CP21" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="CQ21" s="10" t="s">
+      <c r="CQ21" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="27" t="s">
+    <row r="22" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="32" t="s">
         <v>1032</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -11148,18 +11138,18 @@
       <c r="CP22" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="CQ22" s="10" t="s">
+      <c r="CQ22" s="9" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="23" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="32" t="s">
         <v>594</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -11298,7 +11288,7 @@
         <v>637</v>
       </c>
       <c r="AW23" s="5"/>
-      <c r="AX23" s="35" t="s">
+      <c r="AX23" s="3" t="s">
         <v>594</v>
       </c>
       <c r="AY23" s="3" t="s">
@@ -11433,16 +11423,16 @@
       <c r="CP23" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="CQ23" s="10" t="s">
+      <c r="CQ23" s="9" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="24" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="27" t="s">
+    <row r="24" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="32" t="s">
         <v>1033</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -11716,18 +11706,18 @@
       <c r="CP24" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="CQ24" s="10" t="s">
+      <c r="CQ24" s="9" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="25" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="32" t="s">
         <v>733</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -11866,7 +11856,7 @@
         <v>776</v>
       </c>
       <c r="AW25" s="5"/>
-      <c r="AX25" s="35" t="s">
+      <c r="AX25" s="3" t="s">
         <v>806</v>
       </c>
       <c r="AY25" s="3" t="s">
@@ -12001,16 +11991,16 @@
       <c r="CP25" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="CQ25" s="10" t="s">
+      <c r="CQ25" s="9" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="32" t="s">
         <v>1079</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -12284,18 +12274,18 @@
       <c r="CP26" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="CQ26" s="10" t="s">
+      <c r="CQ26" s="9" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="27" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A27" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="32" t="s">
         <v>807</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -12434,7 +12424,7 @@
         <v>807</v>
       </c>
       <c r="AW27" s="5"/>
-      <c r="AX27" s="35" t="s">
+      <c r="AX27" s="3" t="s">
         <v>807</v>
       </c>
       <c r="AY27" s="3" t="s">
@@ -12569,16 +12559,16 @@
       <c r="CP27" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="CQ27" s="10" t="s">
+      <c r="CQ27" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="28" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A28" s="46"/>
+      <c r="B28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="32" t="s">
         <v>1130</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -12852,18 +12842,18 @@
       <c r="CP28" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="CQ28" s="10" t="s">
+      <c r="CQ28" s="9" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="29" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="32" t="s">
         <v>656</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -13002,7 +12992,7 @@
         <v>656</v>
       </c>
       <c r="AW29" s="5"/>
-      <c r="AX29" s="35" t="s">
+      <c r="AX29" s="3" t="s">
         <v>656</v>
       </c>
       <c r="AY29" s="3" t="s">
@@ -13137,16 +13127,16 @@
       <c r="CP29" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="CQ29" s="10" t="s">
+      <c r="CQ29" s="9" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="30" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="27" t="s">
+    <row r="30" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="32" t="s">
         <v>1040</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -13420,18 +13410,18 @@
       <c r="CP30" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="CQ30" s="10" t="s">
+      <c r="CQ30" s="9" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="31" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="32" t="s">
         <v>854</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -13570,7 +13560,7 @@
         <v>853</v>
       </c>
       <c r="AW31" s="5"/>
-      <c r="AX31" s="35" t="s">
+      <c r="AX31" s="3" t="s">
         <v>854</v>
       </c>
       <c r="AY31" s="3" t="s">
@@ -13705,16 +13695,16 @@
       <c r="CP31" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="CQ31" s="10" t="s">
+      <c r="CQ31" s="9" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="32" spans="1:113" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="27" t="s">
+    <row r="32" spans="1:95" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
+      <c r="B32" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="32" t="s">
         <v>1218</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -13988,18 +13978,18 @@
       <c r="CP32" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="CQ32" s="10" t="s">
+      <c r="CQ32" s="9" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="33" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="32" t="s">
         <v>881</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -14138,7 +14128,7 @@
         <v>925</v>
       </c>
       <c r="AW33" s="5"/>
-      <c r="AX33" s="35" t="s">
+      <c r="AX33" s="3" t="s">
         <v>881</v>
       </c>
       <c r="AY33" s="3" t="s">
@@ -14273,16 +14263,16 @@
       <c r="CP33" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="CQ33" s="10" t="s">
+      <c r="CQ33" s="9" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="34" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="32" t="s">
         <v>1282</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -14556,18 +14546,18 @@
       <c r="CP34" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="CQ34" s="10" t="s">
+      <c r="CQ34" s="9" t="s">
         <v>1327</v>
       </c>
     </row>
     <row r="35" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="32" t="s">
         <v>955</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -14706,7 +14696,7 @@
         <v>955</v>
       </c>
       <c r="AW35" s="5"/>
-      <c r="AX35" s="35" t="s">
+      <c r="AX35" s="3" t="s">
         <v>955</v>
       </c>
       <c r="AY35" s="3" t="s">
@@ -14841,16 +14831,16 @@
       <c r="CP35" s="3" t="s">
         <v>955</v>
       </c>
-      <c r="CQ35" s="10" t="s">
+      <c r="CQ35" s="9" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="36" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="27" t="s">
+      <c r="A36" s="46"/>
+      <c r="B36" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="32" t="s">
         <v>1328</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -15124,18 +15114,18 @@
       <c r="CP36" s="3" t="s">
         <v>1328</v>
       </c>
-      <c r="CQ36" s="10" t="s">
+      <c r="CQ36" s="9" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="37" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="32" t="s">
         <v>957</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -15274,7 +15264,7 @@
         <v>1002</v>
       </c>
       <c r="AW37" s="5"/>
-      <c r="AX37" s="35" t="s">
+      <c r="AX37" s="3" t="s">
         <v>957</v>
       </c>
       <c r="AY37" s="3" t="s">
@@ -15409,16 +15399,16 @@
       <c r="CP37" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="CQ37" s="10" t="s">
+      <c r="CQ37" s="9" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="38" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="27" t="s">
+      <c r="A38" s="46"/>
+      <c r="B38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="32" t="s">
         <v>1329</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -15692,302 +15682,297 @@
       <c r="CP38" s="3" t="s">
         <v>1392</v>
       </c>
-      <c r="CQ38" s="10" t="s">
+      <c r="CQ38" s="9" t="s">
         <v>1393</v>
       </c>
     </row>
     <row r="39" spans="1:95" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="27" t="s">
+      <c r="A39" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="33">
         <v>0</v>
       </c>
-      <c r="D39" s="43">
+      <c r="D39" s="34">
         <v>-1177.6300000000001</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="34">
         <v>-59.69</v>
       </c>
-      <c r="F39" s="43">
+      <c r="F39" s="34">
         <v>52.64</v>
       </c>
-      <c r="G39" s="43">
+      <c r="G39" s="34">
         <v>79.94</v>
       </c>
-      <c r="H39" s="43">
+      <c r="H39" s="34">
         <v>89.62</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="34">
         <v>93.85</v>
       </c>
-      <c r="J39" s="43">
+      <c r="J39" s="34">
         <v>95.95</v>
       </c>
-      <c r="K39" s="43">
+      <c r="K39" s="34">
         <v>97.08</v>
       </c>
-      <c r="L39" s="43">
+      <c r="L39" s="34">
         <v>97.71</v>
       </c>
-      <c r="M39" s="43">
+      <c r="M39" s="34">
         <v>98.06</v>
       </c>
-      <c r="N39" s="43">
+      <c r="N39" s="34">
         <v>98.22</v>
       </c>
-      <c r="O39" s="43">
+      <c r="O39" s="34">
         <v>98.28</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="34">
         <v>98.24</v>
       </c>
-      <c r="Q39" s="43">
+      <c r="Q39" s="34">
         <v>98.15</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="34">
         <v>98</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="34">
         <v>97.8</v>
       </c>
-      <c r="T39" s="43">
+      <c r="T39" s="34">
         <v>97.56</v>
       </c>
-      <c r="U39" s="43">
+      <c r="U39" s="34">
         <v>97.29</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="34">
         <v>96.98</v>
       </c>
-      <c r="W39" s="43">
+      <c r="W39" s="34">
         <v>96.63</v>
       </c>
-      <c r="X39" s="43">
+      <c r="X39" s="34">
         <v>96.26</v>
       </c>
-      <c r="Y39" s="43">
+      <c r="Y39" s="34">
         <v>95.85</v>
       </c>
-      <c r="Z39" s="43">
+      <c r="Z39" s="34">
         <v>95.4</v>
       </c>
-      <c r="AA39" s="43">
+      <c r="AA39" s="34">
         <v>94.93</v>
       </c>
-      <c r="AB39" s="43">
+      <c r="AB39" s="34">
         <v>94.42</v>
       </c>
-      <c r="AC39" s="43">
+      <c r="AC39" s="34">
         <v>93.89</v>
       </c>
-      <c r="AD39" s="43">
+      <c r="AD39" s="34">
         <v>93.32</v>
       </c>
-      <c r="AE39" s="43">
+      <c r="AE39" s="34">
         <v>92.73</v>
       </c>
-      <c r="AF39" s="43">
+      <c r="AF39" s="34">
         <v>92.11</v>
       </c>
-      <c r="AG39" s="43">
+      <c r="AG39" s="34">
         <v>91.46</v>
       </c>
-      <c r="AH39" s="43">
+      <c r="AH39" s="34">
         <v>90.79</v>
       </c>
-      <c r="AI39" s="43">
+      <c r="AI39" s="34">
         <v>90.09</v>
       </c>
-      <c r="AJ39" s="43">
+      <c r="AJ39" s="34">
         <v>89.38</v>
       </c>
-      <c r="AK39" s="43">
+      <c r="AK39" s="34">
         <v>88.63</v>
       </c>
-      <c r="AL39" s="43">
+      <c r="AL39" s="34">
         <v>87.87</v>
       </c>
-      <c r="AM39" s="43">
+      <c r="AM39" s="34">
         <v>87.09</v>
       </c>
-      <c r="AN39" s="43">
+      <c r="AN39" s="34">
         <v>86.29</v>
       </c>
-      <c r="AO39" s="43">
+      <c r="AO39" s="34">
         <v>85.47</v>
       </c>
-      <c r="AP39" s="43">
+      <c r="AP39" s="34">
         <v>84.63</v>
       </c>
-      <c r="AQ39" s="43">
+      <c r="AQ39" s="34">
         <v>83.77</v>
       </c>
-      <c r="AR39" s="43">
+      <c r="AR39" s="34">
         <v>82.89</v>
       </c>
-      <c r="AS39" s="43">
+      <c r="AS39" s="34">
         <v>81.99</v>
       </c>
-      <c r="AT39" s="43">
+      <c r="AT39" s="34">
         <v>81.06</v>
       </c>
-      <c r="AU39" s="43">
+      <c r="AU39" s="34">
         <v>80.08</v>
       </c>
-      <c r="AV39" s="43">
+      <c r="AV39" s="34">
         <v>79.010000000000005</v>
       </c>
-      <c r="AW39" s="44"/>
-      <c r="AX39" s="45">
+      <c r="AW39" s="35"/>
+      <c r="AX39" s="34">
         <v>0</v>
       </c>
-      <c r="AY39" s="43">
+      <c r="AY39" s="34">
         <v>-1177.6300000000001</v>
       </c>
-      <c r="AZ39" s="43">
+      <c r="AZ39" s="34">
         <v>-59.69</v>
       </c>
-      <c r="BA39" s="43">
+      <c r="BA39" s="34">
         <v>52.64</v>
       </c>
-      <c r="BB39" s="43">
+      <c r="BB39" s="34">
         <v>79.94</v>
       </c>
-      <c r="BC39" s="43">
+      <c r="BC39" s="34">
         <v>89.62</v>
       </c>
-      <c r="BD39" s="43">
+      <c r="BD39" s="34">
         <v>93.85</v>
       </c>
-      <c r="BE39" s="43">
+      <c r="BE39" s="34">
         <v>95.95</v>
       </c>
-      <c r="BF39" s="43">
+      <c r="BF39" s="34">
         <v>97.08</v>
       </c>
-      <c r="BG39" s="43">
+      <c r="BG39" s="34">
         <v>97.71</v>
       </c>
-      <c r="BH39" s="43">
+      <c r="BH39" s="34">
         <v>98.06</v>
       </c>
-      <c r="BI39" s="43">
+      <c r="BI39" s="34">
         <v>98.22</v>
       </c>
-      <c r="BJ39" s="43">
+      <c r="BJ39" s="34">
         <v>98.28</v>
       </c>
-      <c r="BK39" s="43">
+      <c r="BK39" s="34">
         <v>98.24</v>
       </c>
-      <c r="BL39" s="43">
+      <c r="BL39" s="34">
         <v>98.15</v>
       </c>
-      <c r="BM39" s="43">
+      <c r="BM39" s="34">
         <v>98</v>
       </c>
-      <c r="BN39" s="43">
+      <c r="BN39" s="34">
         <v>97.8</v>
       </c>
-      <c r="BO39" s="43">
+      <c r="BO39" s="34">
         <v>97.57</v>
       </c>
-      <c r="BP39" s="43">
+      <c r="BP39" s="34">
         <v>97.29</v>
       </c>
-      <c r="BQ39" s="43">
+      <c r="BQ39" s="34">
         <v>96.99</v>
       </c>
-      <c r="BR39" s="43">
+      <c r="BR39" s="34">
         <v>96.64</v>
       </c>
-      <c r="BS39" s="43">
+      <c r="BS39" s="34">
         <v>96.27</v>
       </c>
-      <c r="BT39" s="43">
+      <c r="BT39" s="34">
         <v>95.86</v>
       </c>
-      <c r="BU39" s="43">
+      <c r="BU39" s="34">
         <v>95.42</v>
       </c>
-      <c r="BV39" s="43">
+      <c r="BV39" s="34">
         <v>94.95</v>
       </c>
-      <c r="BW39" s="43">
+      <c r="BW39" s="34">
         <v>94.45</v>
       </c>
-      <c r="BX39" s="43">
+      <c r="BX39" s="34">
         <v>93.92</v>
       </c>
-      <c r="BY39" s="43">
+      <c r="BY39" s="34">
         <v>93.36</v>
       </c>
-      <c r="BZ39" s="43">
+      <c r="BZ39" s="34">
         <v>92.77</v>
       </c>
-      <c r="CA39" s="43">
+      <c r="CA39" s="34">
         <v>92.16</v>
       </c>
-      <c r="CB39" s="43">
+      <c r="CB39" s="34">
         <v>91.53</v>
       </c>
-      <c r="CC39" s="43">
+      <c r="CC39" s="34">
         <v>90.86</v>
       </c>
-      <c r="CD39" s="43">
+      <c r="CD39" s="34">
         <v>90.18</v>
       </c>
-      <c r="CE39" s="43">
+      <c r="CE39" s="34">
         <v>89.48</v>
       </c>
-      <c r="CF39" s="43">
+      <c r="CF39" s="34">
         <v>88.75</v>
       </c>
-      <c r="CG39" s="43">
+      <c r="CG39" s="34">
         <v>88.01</v>
       </c>
-      <c r="CH39" s="43">
+      <c r="CH39" s="34">
         <v>87.25</v>
       </c>
-      <c r="CI39" s="43">
+      <c r="CI39" s="34">
         <v>86.48</v>
       </c>
-      <c r="CJ39" s="43">
+      <c r="CJ39" s="34">
         <v>85.69</v>
       </c>
-      <c r="CK39" s="43">
+      <c r="CK39" s="34">
         <v>84.89</v>
       </c>
-      <c r="CL39" s="43">
+      <c r="CL39" s="34">
         <v>84.07</v>
       </c>
-      <c r="CM39" s="43">
+      <c r="CM39" s="34">
         <v>83.25</v>
       </c>
-      <c r="CN39" s="43">
+      <c r="CN39" s="34">
         <v>82.42</v>
       </c>
-      <c r="CO39" s="43">
+      <c r="CO39" s="34">
         <v>81.58</v>
       </c>
-      <c r="CP39" s="43">
+      <c r="CP39" s="34">
         <v>80.739999999999995</v>
       </c>
-      <c r="CQ39" s="13">
+      <c r="CQ39" s="11">
         <v>79.89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C1:AV1"/>
-    <mergeCell ref="AX1:CQ1"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
@@ -15996,6 +15981,11 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A25:A26"/>
+    <mergeCell ref="C1:AV1"/>
+    <mergeCell ref="AX1:CQ1"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
